--- a/outputs-HGR-r202-archive/g__UBA1436_train.xlsx
+++ b/outputs-HGR-r202-archive/g__UBA1436_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_1.fasta</t>
+          <t>label_UMGS502_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9987375935401919</v>
+        <v>0.9999794542911408</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00126240645978602</v>
+        <v>2.054570883702484e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219807870808091e-14</v>
+        <v>2.220430843412413e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9987375935401919</v>
+        <v>0.9999794542911408</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_10.fasta</t>
+          <t>label_UMGS502_28.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999257139921466</v>
+        <v>0.9999834855044998</v>
       </c>
       <c r="C23" t="n">
-        <v>7.428600783131081e-05</v>
+        <v>1.651449547796568e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220391080175037e-14</v>
+        <v>2.220433826741075e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999257139921466</v>
+        <v>0.9999834855044998</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_15.fasta</t>
+          <t>label_UMGS502_30.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.99996397710038</v>
+        <v>0.9999825394495439</v>
       </c>
       <c r="C24" t="n">
-        <v>3.602289959772134e-05</v>
+        <v>1.746055043399602e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220419390150185e-14</v>
+        <v>2.220433126599047e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.99996397710038</v>
+        <v>0.9999825394495439</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_20.fasta</t>
+          <t>label_UMGS502_31.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998719819818396</v>
+        <v>0.9997519091253234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001280180181382512</v>
+        <v>0.0002480908746544865</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220351337320251e-14</v>
+        <v>2.220262576997802e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998719819818396</v>
+        <v>0.9997519091253234</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,20 +1122,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_39.fasta</t>
+          <t>label_UMGS502_35.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999891710307363</v>
+        <v>0.9997860188584431</v>
       </c>
       <c r="C26" t="n">
-        <v>1.082896924149658e-05</v>
+        <v>0.0002139811415347401</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220438034492275e-14</v>
+        <v>2.220287784375742e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999891710307363</v>
+        <v>0.9997860188584431</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1146,20 +1146,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_42.fasta</t>
+          <t>label_UMGS502_45.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999053142845765</v>
+        <v>0.9997006322040984</v>
       </c>
       <c r="C27" t="n">
-        <v>9.468571540136936e-05</v>
+        <v>0.0002993677958794153</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220375989863453e-14</v>
+        <v>2.220224693733036e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9999053142845765</v>
+        <v>0.9997006322040984</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_49.fasta</t>
+          <t>label_UMGS502_47.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9978510357276674</v>
+        <v>0.9994905033338758</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002148964272310441</v>
+        <v>0.0005094966661019377</v>
       </c>
       <c r="D28" t="n">
-        <v>2.219808971672291e-14</v>
+        <v>2.220069586667245e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9978510357276674</v>
+        <v>0.9994905033338758</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1194,20 +1194,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_5.fasta</t>
+          <t>label_UMGS502_59.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9931685654894384</v>
+        <v>0.9985670770230499</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006831434510539249</v>
+        <v>0.001432922976927869</v>
       </c>
       <c r="D29" t="n">
-        <v>2.219818877805478e-14</v>
+        <v>2.21980949780492e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9931685654894384</v>
+        <v>0.9985670770230499</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1218,20 +1218,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_51.fasta</t>
+          <t>label_UMGS502_63.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9998054277953614</v>
+        <v>0.9999592608462773</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001945722046164209</v>
+        <v>4.073915370050267e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220302130306472e-14</v>
+        <v>2.220415900314149e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9998054277953614</v>
+        <v>0.9999592608462773</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1242,20 +1242,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_58.fasta</t>
+          <t>label_UMGS502_65.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9975991662770847</v>
+        <v>0.9985599685457218</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002400833722893234</v>
+        <v>0.001440031454255895</v>
       </c>
       <c r="D31" t="n">
-        <v>2.219810568833479e-14</v>
+        <v>2.219808407518494e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9975991662770847</v>
+        <v>0.9985599685457218</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1266,20 +1266,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_6.fasta</t>
+          <t>label_UMGS502_74.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9985624375860276</v>
+        <v>0.9951606431395091</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00143756241395019</v>
+        <v>0.004839356860468724</v>
       </c>
       <c r="D32" t="n">
-        <v>2.219808784228634e-14</v>
+        <v>2.21981272959196e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9985624375860276</v>
+        <v>0.9951606431395091</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1290,20 +1290,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_64.fasta</t>
+          <t>label_UMGS502_80.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999176391032002</v>
+        <v>0.9953167095950789</v>
       </c>
       <c r="C33" t="n">
-        <v>8.236089677761243e-05</v>
+        <v>0.004683290404898988</v>
       </c>
       <c r="D33" t="n">
-        <v>2.22038510667764e-14</v>
+        <v>2.219817026526776e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999176391032002</v>
+        <v>0.9953167095950789</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1314,20 +1314,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_69.fasta</t>
+          <t>label_UMGS502_81.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9981699808939271</v>
+        <v>0.9986622332423025</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001830019106050868</v>
+        <v>0.001337766757675365</v>
       </c>
       <c r="D34" t="n">
-        <v>2.219807850701861e-14</v>
+        <v>2.219808387171368e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9981699808939271</v>
+        <v>0.9986622332423025</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1338,20 +1338,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_7.fasta</t>
+          <t>label_UMGS502_84.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9981074575011974</v>
+        <v>0.9909749727596138</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001892542498780374</v>
+        <v>0.009025027240364027</v>
       </c>
       <c r="D35" t="n">
-        <v>2.219807822646429e-14</v>
+        <v>2.219817373098108e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9981074575011974</v>
+        <v>0.9909749727596138</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1362,20 +1362,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_72.fasta</t>
+          <t>label_UMGS502_87.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9999300785751428</v>
+        <v>0.991832407490676</v>
       </c>
       <c r="C36" t="n">
-        <v>6.992142483489358e-05</v>
+        <v>0.008167592509301819</v>
       </c>
       <c r="D36" t="n">
-        <v>2.220394309062414e-14</v>
+        <v>2.219824101558009e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9999300785751428</v>
+        <v>0.991832407490676</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1386,20 +1386,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_90.fasta</t>
+          <t>label_UMGS502_11.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9778477916973159</v>
+        <v>0.9999994431991424</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02215220830266182</v>
+        <v>2.464686912906636e-10</v>
       </c>
       <c r="D37" t="n">
-        <v>2.21983398991771e-14</v>
+        <v>5.565543890091615e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778477916973159</v>
+        <v>0.9999994431991424</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1410,20 +1410,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_92.fasta</t>
+          <t>label_UMGS502_13.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9998464650141207</v>
+        <v>0.9999954792189812</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0001535349858571137</v>
+        <v>6.977698154075629e-08</v>
       </c>
       <c r="D38" t="n">
-        <v>2.220332468698226e-14</v>
+        <v>4.451004037339777e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9998464650141207</v>
+        <v>0.9999954792189812</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1434,20 +1434,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_0.fasta</t>
+          <t>label_UMGS502_16.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999794542911408</v>
+        <v>0.9999995700152382</v>
       </c>
       <c r="C39" t="n">
-        <v>2.054570883702484e-05</v>
+        <v>8.797362674265782e-12</v>
       </c>
       <c r="D39" t="n">
-        <v>2.220430843412413e-14</v>
+        <v>4.299759643266335e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9999794542911408</v>
+        <v>0.9999995700152382</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1458,20 +1458,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_28.fasta</t>
+          <t>label_UMGS502_17.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9999834855044998</v>
+        <v>0.999993613454535</v>
       </c>
       <c r="C40" t="n">
-        <v>1.651449547796568e-05</v>
+        <v>7.386947990694631e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>2.220433826741075e-14</v>
+        <v>5.6478506658789e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9999834855044998</v>
+        <v>0.999993613454535</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1482,20 +1482,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_30.fasta</t>
+          <t>label_UMGS502_22.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999825394495439</v>
+        <v>0.9999990818524523</v>
       </c>
       <c r="C41" t="n">
-        <v>1.746055043399602e-05</v>
+        <v>2.499996096690518e-09</v>
       </c>
       <c r="D41" t="n">
-        <v>2.220433126599047e-14</v>
+        <v>9.156475514644655e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999825394495439</v>
+        <v>0.9999990818524523</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1506,20 +1506,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_31.fasta</t>
+          <t>label_UMGS502_23.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9997519091253234</v>
+        <v>0.9999154407834961</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002480908746544865</v>
+        <v>4.182170812622548e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>2.220262576997802e-14</v>
+        <v>8.037704569125574e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9997519091253234</v>
+        <v>0.9999154407834961</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1530,20 +1530,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_35.fasta</t>
+          <t>label_UMGS502_53.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9997860188584431</v>
+        <v>0.999506739726962</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002139811415347401</v>
+        <v>2.839428787137772e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>2.220287784375742e-14</v>
+        <v>0.0004648659851666087</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9997860188584431</v>
+        <v>0.999506739726962</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1554,20 +1554,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_45.fasta</t>
+          <t>label_UMGS502_57.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9997006322040984</v>
+        <v>0.9999406615452225</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0002993677958794153</v>
+        <v>1.344146724727359e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>2.220224693733036e-14</v>
+        <v>5.799430805259222e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9997006322040984</v>
+        <v>0.9999406615452225</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1578,20 +1578,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_47.fasta</t>
+          <t>label_UMGS502_61.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9994905033338758</v>
+        <v>0.9998391924251713</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0005094966661019377</v>
+        <v>2.892835517635544e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220069586667245e-14</v>
+        <v>0.0001579147393112262</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9994905033338758</v>
+        <v>0.9998391924251713</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1602,20 +1602,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_59.fasta</t>
+          <t>label_UMGS502_66.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9985670770230499</v>
+        <v>0.999727571369551</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001432922976927869</v>
+        <v>2.011686063075039e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>2.21980949780492e-14</v>
+        <v>0.0002523117698180722</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9985670770230499</v>
+        <v>0.999727571369551</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1626,20 +1626,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_63.fasta</t>
+          <t>label_UMGS502_67.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9999592608462773</v>
+        <v>0.9963953343921802</v>
       </c>
       <c r="C47" t="n">
-        <v>4.073915370050267e-05</v>
+        <v>0.001553576954827983</v>
       </c>
       <c r="D47" t="n">
-        <v>2.220415900314149e-14</v>
+        <v>0.002051088652991771</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999592608462773</v>
+        <v>0.9963953343921802</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1650,20 +1650,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_65.fasta</t>
+          <t>label_UMGS502_70.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9985599685457218</v>
+        <v>0.9933544857895283</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001440031454255895</v>
+        <v>0.000393194835920851</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219808407518494e-14</v>
+        <v>0.006252319374550896</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9985599685457218</v>
+        <v>0.9933544857895283</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1674,20 +1674,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_74.fasta</t>
+          <t>label_UMGS502_71.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9951606431395091</v>
+        <v>0.9997532122398211</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004839356860468724</v>
+        <v>4.04246349740221e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>2.21981272959196e-14</v>
+        <v>0.00020636312520507</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9951606431395091</v>
+        <v>0.9997532122398211</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1698,20 +1698,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_80.fasta</t>
+          <t>label_UMGS502_75.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9953167095950789</v>
+        <v>0.9999813319522685</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004683290404898988</v>
+        <v>1.626854532755113e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>2.219817026526776e-14</v>
+        <v>1.850536227823806e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9953167095950789</v>
+        <v>0.9999813319522685</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1722,20 +1722,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_81.fasta</t>
+          <t>label_UMGS502_77.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9986622332423025</v>
+        <v>0.9999760322989566</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001337766757675365</v>
+        <v>5.147057456454749e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>2.219808387171368e-14</v>
+        <v>2.34529952978508e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9986622332423025</v>
+        <v>0.9999760322989566</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1746,20 +1746,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_84.fasta</t>
+          <t>label_UMGS502_78.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9909749727596138</v>
+        <v>0.9992427809306877</v>
       </c>
       <c r="C52" t="n">
-        <v>0.009025027240364027</v>
+        <v>6.772202958943883e-08</v>
       </c>
       <c r="D52" t="n">
-        <v>2.219817373098108e-14</v>
+        <v>0.0007571513472826472</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9909749727596138</v>
+        <v>0.9992427809306877</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1770,20 +1770,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_87.fasta</t>
+          <t>label_UMGS502_83.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.991832407490676</v>
+        <v>0.9878594233473666</v>
       </c>
       <c r="C53" t="n">
-        <v>0.008167592509301819</v>
+        <v>0.005732355310196144</v>
       </c>
       <c r="D53" t="n">
-        <v>2.219824101558009e-14</v>
+        <v>0.006408221342437126</v>
       </c>
       <c r="E53" t="n">
-        <v>0.991832407490676</v>
+        <v>0.9878594233473666</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1794,20 +1794,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_11.fasta</t>
+          <t>label_UMGS502_89.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9999994431991424</v>
+        <v>0.9824837386790536</v>
       </c>
       <c r="C54" t="n">
-        <v>2.464686912906636e-10</v>
+        <v>0.01731049739403758</v>
       </c>
       <c r="D54" t="n">
-        <v>5.565543890091615e-07</v>
+        <v>0.0002057639269087495</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9999994431991424</v>
+        <v>0.9824837386790536</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1818,20 +1818,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_13.fasta</t>
+          <t>label_UMGS502_9.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9999954792189812</v>
+        <v>0.9999916222446662</v>
       </c>
       <c r="C55" t="n">
-        <v>6.977698154075629e-08</v>
+        <v>1.032235433411373e-07</v>
       </c>
       <c r="D55" t="n">
-        <v>4.451004037339777e-06</v>
+        <v>8.274531790466284e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9999954792189812</v>
+        <v>0.9999916222446662</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1842,20 +1842,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_16.fasta</t>
+          <t>label_UMGS502_91.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9999995700152382</v>
+        <v>0.9891550918000017</v>
       </c>
       <c r="C56" t="n">
-        <v>8.797362674265782e-12</v>
+        <v>0.01039960855864789</v>
       </c>
       <c r="D56" t="n">
-        <v>4.299759643266335e-07</v>
+        <v>0.0004452996413504703</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9999995700152382</v>
+        <v>0.9891550918000017</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1866,20 +1866,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_17.fasta</t>
+          <t>label_UMGS502_19.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.999993613454535</v>
+        <v>0.9998660697537729</v>
       </c>
       <c r="C57" t="n">
-        <v>7.386947990694631e-07</v>
+        <v>0.0001148980177570393</v>
       </c>
       <c r="D57" t="n">
-        <v>5.6478506658789e-06</v>
+        <v>1.903222847015191e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>0.999993613454535</v>
+        <v>0.9998660697537729</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1890,20 +1890,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_22.fasta</t>
+          <t>label_UMGS502_2.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9999990818524523</v>
+        <v>0.9572602787311499</v>
       </c>
       <c r="C58" t="n">
-        <v>2.499996096690518e-09</v>
+        <v>0.04083078652241823</v>
       </c>
       <c r="D58" t="n">
-        <v>9.156475514644655e-07</v>
+        <v>0.001908934746431813</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9999990818524523</v>
+        <v>0.9572602787311499</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1914,20 +1914,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_23.fasta</t>
+          <t>label_UMGS502_26.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9999154407834961</v>
+        <v>0.9999789208242578</v>
       </c>
       <c r="C59" t="n">
-        <v>4.182170812622548e-06</v>
+        <v>1.346869975057685e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>8.037704569125574e-05</v>
+        <v>7.610475991756385e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9999154407834961</v>
+        <v>0.9999789208242578</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1938,20 +1938,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_53.fasta</t>
+          <t>label_UMGS502_27.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.999506739726962</v>
+        <v>0.9999239652253885</v>
       </c>
       <c r="C60" t="n">
-        <v>2.839428787137772e-05</v>
+        <v>6.565223394057054e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0004648659851666087</v>
+        <v>1.038254067101691e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>0.999506739726962</v>
+        <v>0.9999239652253885</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1962,20 +1962,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_57.fasta</t>
+          <t>label_UMGS502_32.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9999406615452225</v>
+        <v>0.999982007027281</v>
       </c>
       <c r="C61" t="n">
-        <v>1.344146724727359e-06</v>
+        <v>7.831837217549714e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>5.799430805259222e-05</v>
+        <v>1.016113550135464e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9999406615452225</v>
+        <v>0.999982007027281</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1986,20 +1986,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_61.fasta</t>
+          <t>label_UMGS502_33.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9998391924251713</v>
+        <v>0.9999939859696372</v>
       </c>
       <c r="C62" t="n">
-        <v>2.892835517635544e-06</v>
+        <v>3.779242484903287e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0001579147393112262</v>
+        <v>2.234787878009069e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9998391924251713</v>
+        <v>0.9999939859696372</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2010,20 +2010,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_66.fasta</t>
+          <t>label_UMGS502_34.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.999727571369551</v>
+        <v>0.9999899230684136</v>
       </c>
       <c r="C63" t="n">
-        <v>2.011686063075039e-05</v>
+        <v>7.348653074118019e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0002523117698180722</v>
+        <v>2.728278512220313e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>0.999727571369551</v>
+        <v>0.9999899230684136</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2034,20 +2034,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_67.fasta</t>
+          <t>label_UMGS502_36.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9963953343921802</v>
+        <v>0.9999277696534726</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001553576954827983</v>
+        <v>4.057436470940501e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002051088652991771</v>
+        <v>3.165598181792115e-05</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9963953343921802</v>
+        <v>0.9999277696534726</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2058,20 +2058,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_70.fasta</t>
+          <t>label_UMGS502_40.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9933544857895283</v>
+        <v>0.6072958374137124</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000393194835920851</v>
+        <v>0.1075900545824387</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006252319374550896</v>
+        <v>0.285114108003849</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9933544857895283</v>
+        <v>0.6072958374137124</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2082,20 +2082,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_71.fasta</t>
+          <t>label_UMGS502_41.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9997532122398211</v>
+        <v>0.999105495112717</v>
       </c>
       <c r="C66" t="n">
-        <v>4.04246349740221e-05</v>
+        <v>0.0006476079117929438</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00020636312520507</v>
+        <v>0.0002468969754900501</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9997532122398211</v>
+        <v>0.999105495112717</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2106,20 +2106,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_75.fasta</t>
+          <t>label_UMGS502_44.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9999813319522685</v>
+        <v>0.999301106047398</v>
       </c>
       <c r="C67" t="n">
-        <v>1.626854532755113e-07</v>
+        <v>0.0004730237826097171</v>
       </c>
       <c r="D67" t="n">
-        <v>1.850536227823806e-05</v>
+        <v>0.0002258701699922981</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999813319522685</v>
+        <v>0.999301106047398</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2130,20 +2130,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_77.fasta</t>
+          <t>label_UMGS502_48.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999760322989566</v>
+        <v>0.9999092866040823</v>
       </c>
       <c r="C68" t="n">
-        <v>5.147057456454749e-07</v>
+        <v>7.110653171259104e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>2.34529952978508e-05</v>
+        <v>1.960686420503624e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9999760322989566</v>
+        <v>0.9999092866040823</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2154,20 +2154,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_78.fasta</t>
+          <t>label_UMGS502_52.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9992427809306877</v>
+        <v>0.9999030689810695</v>
       </c>
       <c r="C69" t="n">
-        <v>6.772202958943883e-08</v>
+        <v>2.685742727715865e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0007571513472826472</v>
+        <v>7.007359165338077e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9992427809306877</v>
+        <v>0.9999030689810695</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2178,20 +2178,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_83.fasta</t>
+          <t>label_UMGS502_54.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9878594233473666</v>
+        <v>0.9987811453640377</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005732355310196144</v>
+        <v>0.0006566695909515987</v>
       </c>
       <c r="D70" t="n">
-        <v>0.006408221342437126</v>
+        <v>0.0005621850450106204</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9878594233473666</v>
+        <v>0.9987811453640377</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2202,20 +2202,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_89.fasta</t>
+          <t>label_UMGS502_60.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9824837386790536</v>
+        <v>0.9979710019135444</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01731049739403758</v>
+        <v>0.0006949798560625731</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0002057639269087495</v>
+        <v>0.001334018230393148</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9824837386790536</v>
+        <v>0.9979710019135444</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2226,20 +2226,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_9.fasta</t>
+          <t>label_UMGS502_73.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9999916222446662</v>
+        <v>0.9976650418007889</v>
       </c>
       <c r="C72" t="n">
-        <v>1.032235433411373e-07</v>
+        <v>0.0005935691506141933</v>
       </c>
       <c r="D72" t="n">
-        <v>8.274531790466284e-06</v>
+        <v>0.001741389048596946</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9999916222446662</v>
+        <v>0.9976650418007889</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2250,20 +2250,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_91.fasta</t>
+          <t>label_UMGS502_76.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9891550918000017</v>
+        <v>0.9996265100439827</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01039960855864789</v>
+        <v>0.0001511341668663215</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0004452996413504703</v>
+        <v>0.0002223557891509797</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9891550918000017</v>
+        <v>0.9996265100439827</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2274,20 +2274,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_19.fasta</t>
+          <t>label_UMGS502_79.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9998660697537729</v>
+        <v>0.9911175071330565</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0001148980177570393</v>
+        <v>0.008016040578015865</v>
       </c>
       <c r="D74" t="n">
-        <v>1.903222847015191e-05</v>
+        <v>0.000866452288927611</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9998660697537729</v>
+        <v>0.9911175071330565</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2298,20 +2298,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_2.fasta</t>
+          <t>label_UMGS502_8.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9572602787311499</v>
+        <v>0.9999946478602153</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04083078652241823</v>
+        <v>4.555881888750671e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>0.001908934746431813</v>
+        <v>7.962578958868402e-07</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9572602787311499</v>
+        <v>0.9999946478602153</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2322,20 +2322,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_26.fasta</t>
+          <t>label_UMGS502_85.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9999789208242578</v>
+        <v>0.9999915031443742</v>
       </c>
       <c r="C76" t="n">
-        <v>1.346869975057685e-05</v>
+        <v>6.895406784203399e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>7.610475991756385e-06</v>
+        <v>1.601448841607297e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9999789208242578</v>
+        <v>0.9999915031443742</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2346,20 +2346,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_27.fasta</t>
+          <t>label_UMGS502_88.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9999239652253885</v>
+        <v>0.9978548044734574</v>
       </c>
       <c r="C77" t="n">
-        <v>6.565223394057054e-05</v>
+        <v>0.002134208859482067</v>
       </c>
       <c r="D77" t="n">
-        <v>1.038254067101691e-05</v>
+        <v>1.098666706049607e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9999239652253885</v>
+        <v>0.9978548044734574</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2370,20 +2370,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_32.fasta</t>
+          <t>label_UMGS502_12.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.999982007027281</v>
+        <v>0.9999928922666144</v>
       </c>
       <c r="C78" t="n">
-        <v>7.831837217549714e-06</v>
+        <v>7.107733363553972e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>1.016113550135464e-05</v>
+        <v>2.220440788595433e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.999982007027281</v>
+        <v>0.9999928922666144</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2394,20 +2394,20 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_33.fasta</t>
+          <t>label_UMGS502_14.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9999939859696372</v>
+        <v>0.9999999265701773</v>
       </c>
       <c r="C79" t="n">
-        <v>3.779242484903287e-06</v>
+        <v>7.342980039519073e-08</v>
       </c>
       <c r="D79" t="n">
-        <v>2.234787878009069e-06</v>
+        <v>2.220445994901323e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9999939859696372</v>
+        <v>0.9999999265701773</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2418,20 +2418,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_34.fasta</t>
+          <t>label_UMGS502_18.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9999899230684136</v>
+        <v>0.9999967012734355</v>
       </c>
       <c r="C80" t="n">
-        <v>7.348653074118019e-06</v>
+        <v>3.298726542284178e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>2.728278512220313e-06</v>
+        <v>2.220443607729021e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9999899230684136</v>
+        <v>0.9999967012734355</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2442,20 +2442,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_36.fasta</t>
+          <t>label_UMGS502_21.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9999277696534726</v>
+        <v>0.9999974982870103</v>
       </c>
       <c r="C81" t="n">
-        <v>4.057436470940501e-05</v>
+        <v>2.501712967575692e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>3.165598181792115e-05</v>
+        <v>2.220444197626163e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9999277696534726</v>
+        <v>0.9999974982870103</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2466,20 +2466,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_40.fasta</t>
+          <t>label_UMGS502_24.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.6072958374137124</v>
+        <v>0.9999998419570644</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1075900545824387</v>
+        <v>1.580429133926817e-07</v>
       </c>
       <c r="D82" t="n">
-        <v>0.285114108003849</v>
+        <v>2.220445932275087e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6072958374137124</v>
+        <v>0.9999998419570644</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2490,20 +2490,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_41.fasta</t>
+          <t>label_UMGS502_25.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.999105495112717</v>
+        <v>0.9999835576179903</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0006476079117929438</v>
+        <v>1.644238198758321e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0002468969754900501</v>
+        <v>2.220433880109916e-14</v>
       </c>
       <c r="E83" t="n">
-        <v>0.999105495112717</v>
+        <v>0.9999835576179903</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2514,20 +2514,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_44.fasta</t>
+          <t>label_UMGS502_29.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.999301106047398</v>
+        <v>0.9999905475837281</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0004730237826097171</v>
+        <v>9.45241624965328e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0002258701699922981</v>
+        <v>2.220439053277279e-14</v>
       </c>
       <c r="E84" t="n">
-        <v>0.999301106047398</v>
+        <v>0.9999905475837281</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2538,20 +2538,20 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_48.fasta</t>
+          <t>label_UMGS502_3.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999092866040823</v>
+        <v>0.999995216083159</v>
       </c>
       <c r="C85" t="n">
-        <v>7.110653171259104e-05</v>
+        <v>4.783916818818461e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>1.960686420503624e-05</v>
+        <v>2.22044250849701e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9999092866040823</v>
+        <v>0.999995216083159</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2562,20 +2562,20 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_52.fasta</t>
+          <t>label_UMGS502_37.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9999030689810695</v>
+        <v>0.9999980891053237</v>
       </c>
       <c r="C86" t="n">
-        <v>2.685742727715865e-05</v>
+        <v>1.910894653932259e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>7.007359165338077e-05</v>
+        <v>2.220444634913127e-14</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9999030689810695</v>
+        <v>0.9999980891053237</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2586,20 +2586,20 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_54.fasta</t>
+          <t>label_UMGS502_38.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9987811453640377</v>
+        <v>0.9997260309763497</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0006566695909515987</v>
+        <v>0.0002739690236281555</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0005621850450106204</v>
+        <v>2.220243456661577e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9987811453640377</v>
+        <v>0.9997260309763497</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2610,20 +2610,20 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_60.fasta</t>
+          <t>label_UMGS502_4.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9979710019135444</v>
+        <v>0.9999998572555465</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0006949798560625731</v>
+        <v>1.427444312801655e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001334018230393148</v>
+        <v>2.220445943598227e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9979710019135444</v>
+        <v>0.9999998572555465</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2634,20 +2634,20 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_73.fasta</t>
+          <t>label_UMGS502_43.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9976650418007889</v>
+        <v>0.9999999942231539</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0005935691506141933</v>
+        <v>5.776823961212321e-09</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001741389048596946</v>
+        <v>2.220446044974571e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9976650418007889</v>
+        <v>0.9999999942231539</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2658,20 +2658,20 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_76.fasta</t>
+          <t>label_UMGS502_46.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9996265100439827</v>
+        <v>0.9999592246894513</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0001511341668663215</v>
+        <v>4.077531052657857e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0002223557891509797</v>
+        <v>2.220415873559994e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9996265100439827</v>
+        <v>0.9999592246894513</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2682,20 +2682,20 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_79.fasta</t>
+          <t>label_UMGS502_50.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9911175071330565</v>
+        <v>0.999995596043134</v>
       </c>
       <c r="C91" t="n">
-        <v>0.008016040578015865</v>
+        <v>4.403956843758274e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.000866452288927611</v>
+        <v>2.220442789715272e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9911175071330565</v>
+        <v>0.999995596043134</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2706,20 +2706,20 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_8.fasta</t>
+          <t>label_UMGS502_55.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9999946478602153</v>
+        <v>0.9999967328257884</v>
       </c>
       <c r="C92" t="n">
-        <v>4.555881888750671e-06</v>
+        <v>3.267174189557774e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>7.962578958868402e-07</v>
+        <v>2.220443631081942e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9999946478602153</v>
+        <v>0.9999967328257884</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2730,20 +2730,20 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_85.fasta</t>
+          <t>label_UMGS502_56.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9999915031443742</v>
+        <v>0.9999102909603541</v>
       </c>
       <c r="C93" t="n">
-        <v>6.895406784203399e-06</v>
+        <v>8.970903962376688e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>1.601448841607297e-06</v>
+        <v>2.220379671079178e-14</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9999915031443742</v>
+        <v>0.9999102909603541</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2754,20 +2754,20 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_88.fasta</t>
+          <t>label_UMGS502_62.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9978548044734574</v>
+        <v>0.999964005972053</v>
       </c>
       <c r="C94" t="n">
-        <v>0.002134208859482067</v>
+        <v>3.599402792471084e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>1.098666706049607e-05</v>
+        <v>2.220419411514386e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9978548044734574</v>
+        <v>0.999964005972053</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2778,20 +2778,20 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_12.fasta</t>
+          <t>label_UMGS502_68.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9999928922666144</v>
+        <v>0.999992256445393</v>
       </c>
       <c r="C95" t="n">
-        <v>7.107733363553972e-06</v>
+        <v>7.743554584791554e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>2.220440788595433e-14</v>
+        <v>2.220440318016491e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9999928922666144</v>
+        <v>0.999992256445393</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2802,20 +2802,20 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_14.fasta</t>
+          <t>label_UMGS502_82.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9999999265701773</v>
+        <v>0.5533819103807784</v>
       </c>
       <c r="C96" t="n">
-        <v>7.342980039519073e-08</v>
+        <v>0.4466180896189771</v>
       </c>
       <c r="D96" t="n">
-        <v>2.220445994901323e-14</v>
+        <v>2.444284593216532e-13</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9999999265701773</v>
+        <v>0.5533819103807784</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2826,430 +2826,22 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS502_18.fasta</t>
+          <t>label_UMGS502_86.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9999967012734355</v>
+        <v>0.9820132633991258</v>
       </c>
       <c r="C97" t="n">
-        <v>3.298726542284178e-06</v>
+        <v>0.01798673660085196</v>
       </c>
       <c r="D97" t="n">
-        <v>2.220443607729021e-14</v>
+        <v>2.21983615378165e-14</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9999967012734355</v>
+        <v>0.9820132633991258</v>
       </c>
       <c r="F97" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_21.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.9999974982870103</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.501712967575692e-06</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2.220444197626163e-14</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.9999974982870103</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_24.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.9999998419570644</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.580429133926817e-07</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2.220445932275087e-14</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9999998419570644</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_25.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.9999835576179903</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.644238198758321e-05</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2.220433880109916e-14</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.9999835576179903</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_29.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.9999905475837281</v>
-      </c>
-      <c r="C101" t="n">
-        <v>9.45241624965328e-06</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2.220439053277279e-14</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.9999905475837281</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_3.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.999995216083159</v>
-      </c>
-      <c r="C102" t="n">
-        <v>4.783916818818461e-06</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2.22044250849701e-14</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.999995216083159</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_37.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.9999980891053237</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.910894653932259e-06</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2.220444634913127e-14</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.9999980891053237</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_38.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.9997260309763497</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.0002739690236281555</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.220243456661577e-14</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.9997260309763497</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_4.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.9999998572555465</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.427444312801655e-07</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2.220445943598227e-14</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.9999998572555465</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_43.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.9999999942231539</v>
-      </c>
-      <c r="C106" t="n">
-        <v>5.776823961212321e-09</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2.220446044974571e-14</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.9999999942231539</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_46.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.9999592246894513</v>
-      </c>
-      <c r="C107" t="n">
-        <v>4.077531052657857e-05</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2.220415873559994e-14</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.9999592246894513</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_50.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.999995596043134</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4.403956843758274e-06</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2.220442789715272e-14</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.999995596043134</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_55.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.9999967328257884</v>
-      </c>
-      <c r="C109" t="n">
-        <v>3.267174189557774e-06</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2.220443631081942e-14</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.9999967328257884</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_56.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.9999102909603541</v>
-      </c>
-      <c r="C110" t="n">
-        <v>8.970903962376688e-05</v>
-      </c>
-      <c r="D110" t="n">
-        <v>2.220379671079178e-14</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.9999102909603541</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_62.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.999964005972053</v>
-      </c>
-      <c r="C111" t="n">
-        <v>3.599402792471084e-05</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.220419411514386e-14</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.999964005972053</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_68.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.999992256445393</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.743554584791554e-06</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2.220440318016491e-14</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.999992256445393</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_82.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5533819103807784</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.4466180896189771</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2.444284593216532e-13</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.5533819103807784</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp002329395</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS502_86.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.9820132633991258</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.01798673660085196</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2.21983615378165e-14</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.9820132633991258</v>
-      </c>
-      <c r="F114" t="inlineStr">
         <is>
           <t>s__UBA1436 sp002329395</t>
         </is>
@@ -3266,7 +2858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3621,20 +3213,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_13.fasta</t>
+          <t>label_UMGS243_10.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003050554131405931</v>
+        <v>0.001259743014099084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999389889173719</v>
+        <v>0.9974805139718017</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0003050554131405812</v>
+        <v>0.001259743014099061</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999389889173719</v>
+        <v>0.9974805139718017</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3645,20 +3237,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_2.fasta</t>
+          <t>label_UMGS243_11.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0003006748787505803</v>
+        <v>0.0005406175104336182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9993986502424989</v>
+        <v>0.9989187649791328</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003006748787505693</v>
+        <v>0.0005406175104336014</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9993986502424989</v>
+        <v>0.9989187649791328</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3669,20 +3261,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_3.fasta</t>
+          <t>label_UMGS243_17.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.000300836955491697</v>
+        <v>0.0003662924374398789</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9993983260890167</v>
+        <v>0.9992674151251203</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003008369554916861</v>
+        <v>0.0003662924374398654</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9993983260890167</v>
+        <v>0.9992674151251203</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3693,20 +3285,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_38.fasta</t>
+          <t>label_UMGS243_27.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0003252932345898922</v>
+        <v>0.0003565873116863718</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9993494135308202</v>
+        <v>0.9992868253766274</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003252932345898813</v>
+        <v>0.0003565873116863604</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993494135308202</v>
+        <v>0.9992868253766274</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3717,20 +3309,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_39.fasta</t>
+          <t>label_UMGS243_28.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0003126623048079496</v>
+        <v>0.0007272352560905092</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9993746753903843</v>
+        <v>0.9985455294878189</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0003126623048079384</v>
+        <v>0.0007272352560904894</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9993746753903843</v>
+        <v>0.9985455294878189</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3741,20 +3333,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_40.fasta</t>
+          <t>label_UMGS243_30.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004769290995024257</v>
+        <v>0.0003901329169871499</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990461418009953</v>
+        <v>0.9992197341660257</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0004769290995024116</v>
+        <v>0.000390132916987135</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9990461418009953</v>
+        <v>0.9992197341660257</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3765,20 +3357,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_45.fasta</t>
+          <t>label_UMGS243_35.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005349554694777906</v>
+        <v>0.0003662562178342054</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989300890610444</v>
+        <v>0.9992674875643317</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0005349554694777743</v>
+        <v>0.0003662562178341908</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9989300890610444</v>
+        <v>0.9992674875643317</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3789,20 +3381,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_46.fasta</t>
+          <t>label_UMGS243_37.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00513318538047954</v>
+        <v>0.01678708481806529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.989733629239041</v>
+        <v>0.9664258303638694</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005133185380479527</v>
+        <v>0.01678708481806531</v>
       </c>
       <c r="E22" t="n">
-        <v>0.989733629239041</v>
+        <v>0.9664258303638694</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3813,20 +3405,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_5.fasta</t>
+          <t>label_UMGS243_4.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0003023168596131787</v>
+        <v>0.0003052927661887926</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9993953662807735</v>
+        <v>0.9993894144676225</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003023168596131671</v>
+        <v>0.0003052927661887815</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9993953662807735</v>
+        <v>0.9993894144676225</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3837,20 +3429,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_52.fasta</t>
+          <t>label_UMGS243_42.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.003523724465589381</v>
+        <v>0.0009091776014632034</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9929525510688213</v>
+        <v>0.9981816447970736</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003523724465589361</v>
+        <v>0.0009091776014631807</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9929525510688213</v>
+        <v>0.9981816447970736</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3861,20 +3453,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_57.fasta</t>
+          <t>label_UMGS243_47.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005717476020956219</v>
+        <v>0.001276123233956551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9885650479580875</v>
+        <v>0.997447753532087</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005717476020956209</v>
+        <v>0.00127612323395653</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9885650479580875</v>
+        <v>0.997447753532087</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3885,20 +3477,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_59.fasta</t>
+          <t>label_UMGS243_50.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0004431992562910638</v>
+        <v>0.004093665039480621</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991136014874178</v>
+        <v>0.9918126699210389</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000443199256291048</v>
+        <v>0.004093665039480592</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9991136014874178</v>
+        <v>0.9918126699210389</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3909,20 +3501,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_63.fasta</t>
+          <t>label_UMGS243_51.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009292990696930459</v>
+        <v>0.0004121668850281966</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9814140186061391</v>
+        <v>0.9991756662299436</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009292990696930459</v>
+        <v>0.0004121668850281834</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9814140186061391</v>
+        <v>0.9991756662299436</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3933,20 +3525,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_67.fasta</t>
+          <t>label_UMGS243_56.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08699004861427143</v>
+        <v>0.0005224908484288256</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8260199027714571</v>
+        <v>0.9989550183031423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08699004861427144</v>
+        <v>0.0005224908484288083</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8260199027714571</v>
+        <v>0.9989550183031423</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3957,20 +3549,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_10.fasta</t>
+          <t>label_UMGS243_6.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001259743014099084</v>
+        <v>0.0003305686885243393</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9974805139718017</v>
+        <v>0.9993388626229514</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001259743014099061</v>
+        <v>0.000330568688524326</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9974805139718017</v>
+        <v>0.9993388626229514</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3981,20 +3573,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_11.fasta</t>
+          <t>label_UMGS243_62.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0005406175104336182</v>
+        <v>0.006565553234307259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9989187649791328</v>
+        <v>0.9868688935313855</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0005406175104336014</v>
+        <v>0.006565553234307257</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9989187649791328</v>
+        <v>0.9868688935313855</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -4005,20 +3597,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_17.fasta</t>
+          <t>label_UMGS243_65.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0003662924374398789</v>
+        <v>0.436011332618749</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9992674151251203</v>
+        <v>0.5639886673812236</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0003662924374398654</v>
+        <v>2.741514913545734e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9992674151251203</v>
+        <v>0.5639886673812236</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -4029,20 +3621,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_27.fasta</t>
+          <t>label_UMGS243_66.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0003565873116863718</v>
+        <v>0.2005309063635514</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9992868253766274</v>
+        <v>0.5989381872728969</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0003565873116863604</v>
+        <v>0.2005309063635516</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9992868253766274</v>
+        <v>0.5989381872728969</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -4053,20 +3645,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_28.fasta</t>
+          <t>label_UMGS243_0.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0007272352560905092</v>
+        <v>2.220443322502655e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9985455294878189</v>
+        <v>0.9999963158428198</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0007272352560904894</v>
+        <v>3.684157158162374e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9985455294878189</v>
+        <v>0.9999963158428198</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4077,20 +3669,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_30.fasta</t>
+          <t>label_UMGS243_1.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0003901329169871499</v>
+        <v>2.219808363121548e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9992197341660257</v>
+        <v>0.9983102339292097</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000390132916987135</v>
+        <v>0.001689766070768045</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9992197341660257</v>
+        <v>0.9983102339292097</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -4101,20 +3693,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_35.fasta</t>
+          <t>label_UMGS243_16.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0003662562178342054</v>
+        <v>2.220443513931961e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9992674875643317</v>
+        <v>0.9999965744551589</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0003662562178341908</v>
+        <v>3.425544818958778e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9992674875643317</v>
+        <v>0.9999965744551589</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4125,20 +3717,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_37.fasta</t>
+          <t>label_UMGS243_21.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01678708481806529</v>
+        <v>2.219844090979409e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9664258303638694</v>
+        <v>0.9991844862443436</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01678708481806531</v>
+        <v>0.0008155137556341111</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9664258303638694</v>
+        <v>0.9991844862443436</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -4149,20 +3741,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_4.fasta</t>
+          <t>label_UMGS243_23.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0003052927661887926</v>
+        <v>2.220344213712293e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9993894144676225</v>
+        <v>0.9998622407198002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003052927661887815</v>
+        <v>0.0001377592801775533</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9993894144676225</v>
+        <v>0.9998622407198002</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4173,20 +3765,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_42.fasta</t>
+          <t>label_UMGS243_36.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0009091776014632034</v>
+        <v>2.220239213639984e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9981816447970736</v>
+        <v>0.9997202555177014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0009091776014631807</v>
+        <v>0.0002797444822763426</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9981816447970736</v>
+        <v>0.9997202555177014</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -4197,20 +3789,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_47.fasta</t>
+          <t>label_UMGS243_41.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001276123233956551</v>
+        <v>2.21981511513322e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.997447753532087</v>
+        <v>0.9965063640095424</v>
       </c>
       <c r="D39" t="n">
-        <v>0.00127612323395653</v>
+        <v>0.003493635990435245</v>
       </c>
       <c r="E39" t="n">
-        <v>0.997447753532087</v>
+        <v>0.9965063640095424</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4221,20 +3813,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_50.fasta</t>
+          <t>label_UMGS243_44.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.004093665039480621</v>
+        <v>2.219927624671769e-14</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9918126699210389</v>
+        <v>0.9352320415017957</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004093665039480592</v>
+        <v>0.06476795849818216</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9918126699210389</v>
+        <v>0.9352320415017957</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4245,20 +3837,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_51.fasta</t>
+          <t>label_UMGS243_49.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0004121668850281966</v>
+        <v>2.220118230332845e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9991756662299436</v>
+        <v>0.9995563405855399</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004121668850281834</v>
+        <v>0.0004436594144378554</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9991756662299436</v>
+        <v>0.9995563405855399</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4269,20 +3861,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_56.fasta</t>
+          <t>label_UMGS243_58.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0005224908484288256</v>
+        <v>2.219808211959356e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9989550183031423</v>
+        <v>0.9980746506698367</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0005224908484288083</v>
+        <v>0.001925349330141166</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9989550183031423</v>
+        <v>0.9980746506698367</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4293,20 +3885,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_6.fasta</t>
+          <t>label_UMGS243_64.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0003305686885243393</v>
+        <v>2.219809021957843e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9993388626229514</v>
+        <v>0.9972838144077856</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000330568688524326</v>
+        <v>0.002716185592192161</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9993388626229514</v>
+        <v>0.9972838144077856</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4317,20 +3909,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_62.fasta</t>
+          <t>label_UMGS243_8.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006565553234307259</v>
+        <v>2.220445006890781e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9868688935313855</v>
+        <v>0.9999985916754577</v>
       </c>
       <c r="D44" t="n">
-        <v>0.006565553234307257</v>
+        <v>1.408324520094174e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9868688935313855</v>
+        <v>0.9999985916754577</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4341,20 +3933,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_65.fasta</t>
+          <t>label_UMGS243_15.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.436011332618749</v>
+        <v>2.220442990317767e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5639886673812236</v>
+        <v>0.9999958361630907</v>
       </c>
       <c r="D45" t="n">
-        <v>2.741514913545734e-14</v>
+        <v>4.163836887048804e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5639886673812236</v>
+        <v>0.9999958361630907</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -4365,20 +3957,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_66.fasta</t>
+          <t>label_UMGS243_18.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2005309063635514</v>
+        <v>2.220434372366388e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5989381872728969</v>
+        <v>0.9999831367893232</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2005309063635516</v>
+        <v>1.68632106546758e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5989381872728969</v>
+        <v>0.9999831367893232</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -4389,20 +3981,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_0.fasta</t>
+          <t>label_UMGS243_20.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.220443322502655e-14</v>
+        <v>2.219830960104547e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9999963158428198</v>
+        <v>0.9871086469051874</v>
       </c>
       <c r="D47" t="n">
-        <v>3.684157158162374e-06</v>
+        <v>0.0128913530947904</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999963158428198</v>
+        <v>0.9871086469051874</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -4413,20 +4005,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_1.fasta</t>
+          <t>label_UMGS243_25.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.219808363121548e-14</v>
+        <v>2.220322335426821e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9983102339292097</v>
+        <v>0.999829614995852</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001689766070768045</v>
+        <v>0.0001703850041257581</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9983102339292097</v>
+        <v>0.999829614995852</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -4437,20 +4029,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_16.fasta</t>
+          <t>label_UMGS243_31.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.220443513931961e-14</v>
+        <v>2.220408107124825e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9999965744551589</v>
+        <v>0.9999478908956557</v>
       </c>
       <c r="D49" t="n">
-        <v>3.425544818958778e-06</v>
+        <v>5.210910432200591e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9999965744551589</v>
+        <v>0.9999478908956557</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -4461,20 +4053,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_21.fasta</t>
+          <t>label_UMGS243_32.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.219844090979409e-14</v>
+        <v>2.220274973878583e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9991844862443436</v>
+        <v>0.9997611475727056</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0008155137556341111</v>
+        <v>0.000238852427272246</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9991844862443436</v>
+        <v>0.9997611475727056</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -4485,20 +4077,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_23.fasta</t>
+          <t>label_UMGS243_34.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.220344213712293e-14</v>
+        <v>2.219807145583495e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9998622407198002</v>
+        <v>0.9988818983328185</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001377592801775533</v>
+        <v>0.001118101667159215</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9998622407198002</v>
+        <v>0.9988818983328185</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -4509,20 +4101,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_36.fasta</t>
+          <t>label_UMGS243_43.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.220239213639984e-14</v>
+        <v>2.220118714080266e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9997202555177014</v>
+        <v>0.999541704457611</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0002797444822763426</v>
+        <v>0.0004582955423668434</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9997202555177014</v>
+        <v>0.999541704457611</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -4533,20 +4125,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_41.fasta</t>
+          <t>label_UMGS243_54.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.21981511513322e-14</v>
+        <v>2.219811891275115e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9965063640095424</v>
+        <v>0.9975410582754964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.003493635990435245</v>
+        <v>0.002458941724481394</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9965063640095424</v>
+        <v>0.9975410582754964</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4557,20 +4149,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_44.fasta</t>
+          <t>label_UMGS243_55.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.219927624671769e-14</v>
+        <v>2.223274225990848e-14</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9352320415017957</v>
+        <v>0.9681766647543472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06476795849818216</v>
+        <v>0.0318233352456306</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9352320415017957</v>
+        <v>0.9681766647543472</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4581,20 +4173,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_49.fasta</t>
+          <t>label_UMGS243_61.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.220118230332845e-14</v>
+        <v>2.219855726358453e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9995563405855399</v>
+        <v>0.9756460606595785</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0004436594144378554</v>
+        <v>0.02435393934039926</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9995563405855399</v>
+        <v>0.9756460606595785</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -4605,20 +4197,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_58.fasta</t>
+          <t>label_UMGS243_68.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.219808211959356e-14</v>
+        <v>2.219821462409235e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9980746506698367</v>
+        <v>0.988600083158925</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001925349330141166</v>
+        <v>0.01139991684105288</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9980746506698367</v>
+        <v>0.988600083158925</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -4629,20 +4221,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_64.fasta</t>
+          <t>label_UMGS243_12.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.219809021957843e-14</v>
+        <v>0.0003003729519023819</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9972838144077856</v>
+        <v>0.9993992540961951</v>
       </c>
       <c r="D57" t="n">
-        <v>0.002716185592192161</v>
+        <v>0.0003003729519023705</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9972838144077856</v>
+        <v>0.9993992540961951</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4653,20 +4245,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_8.fasta</t>
+          <t>label_UMGS243_14.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.220445006890781e-14</v>
+        <v>0.0003003926152421993</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9999985916754577</v>
+        <v>0.9993992147695158</v>
       </c>
       <c r="D58" t="n">
-        <v>1.408324520094174e-06</v>
+        <v>0.000300392615242188</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9999985916754577</v>
+        <v>0.9993992147695158</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4677,20 +4269,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_15.fasta</t>
+          <t>label_UMGS243_19.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.220442990317767e-14</v>
+        <v>0.0003015871032873111</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9999958361630907</v>
+        <v>0.9993968257934254</v>
       </c>
       <c r="D59" t="n">
-        <v>4.163836887048804e-06</v>
+        <v>0.0003015871032872997</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9999958361630907</v>
+        <v>0.9993968257934254</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4701,20 +4293,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_18.fasta</t>
+          <t>label_UMGS243_22.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.220434372366388e-14</v>
+        <v>0.0003007801404018778</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9999831367893232</v>
+        <v>0.9993984397191963</v>
       </c>
       <c r="D60" t="n">
-        <v>1.68632106546758e-05</v>
+        <v>0.0003007801404018666</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9999831367893232</v>
+        <v>0.9993984397191963</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -4725,20 +4317,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_20.fasta</t>
+          <t>label_UMGS243_24.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.219830960104547e-14</v>
+        <v>0.0003003782701890993</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9871086469051874</v>
+        <v>0.9993992434596218</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0128913530947904</v>
+        <v>0.0003003782701890859</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9871086469051874</v>
+        <v>0.9993992434596218</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4749,20 +4341,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_25.fasta</t>
+          <t>label_UMGS243_26.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.220322335426821e-14</v>
+        <v>0.0003026438222833366</v>
       </c>
       <c r="C62" t="n">
-        <v>0.999829614995852</v>
+        <v>0.9993947123554333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0001703850041257581</v>
+        <v>0.000302643822283325</v>
       </c>
       <c r="E62" t="n">
-        <v>0.999829614995852</v>
+        <v>0.9993947123554333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4773,20 +4365,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_31.fasta</t>
+          <t>label_UMGS243_29.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.220408107124825e-14</v>
+        <v>0.0003006823913213609</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9999478908956557</v>
+        <v>0.9993986352173572</v>
       </c>
       <c r="D63" t="n">
-        <v>5.210910432200591e-05</v>
+        <v>0.0003006823913213496</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9999478908956557</v>
+        <v>0.9993986352173572</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4797,20 +4389,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_32.fasta</t>
+          <t>label_UMGS243_33.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.220274973878583e-14</v>
+        <v>0.0003019484582159186</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9997611475727056</v>
+        <v>0.9993961030835681</v>
       </c>
       <c r="D64" t="n">
-        <v>0.000238852427272246</v>
+        <v>0.0003019484582159053</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9997611475727056</v>
+        <v>0.9993961030835681</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4821,20 +4413,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_34.fasta</t>
+          <t>label_UMGS243_48.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.219807145583495e-14</v>
+        <v>0.0003717213506898672</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9988818983328185</v>
+        <v>0.9992565572986204</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001118101667159215</v>
+        <v>0.0003717213506898538</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9988818983328185</v>
+        <v>0.9992565572986204</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4845,20 +4437,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_43.fasta</t>
+          <t>label_UMGS243_53.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.220118714080266e-14</v>
+        <v>0.0003052875328278611</v>
       </c>
       <c r="C66" t="n">
-        <v>0.999541704457611</v>
+        <v>0.9993894249343442</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0004582955423668434</v>
+        <v>0.0003052875328278504</v>
       </c>
       <c r="E66" t="n">
-        <v>0.999541704457611</v>
+        <v>0.9993894249343442</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4869,20 +4461,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_54.fasta</t>
+          <t>label_UMGS243_60.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.219811891275115e-14</v>
+        <v>0.0005920222242865684</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9975410582754964</v>
+        <v>0.9988159555514269</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002458941724481394</v>
+        <v>0.0005920222242865518</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9975410582754964</v>
+        <v>0.9988159555514269</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4893,20 +4485,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_55.fasta</t>
+          <t>label_UMGS243_7.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.223274225990848e-14</v>
+        <v>0.0003003226317437967</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9681766647543472</v>
+        <v>0.9993993547365123</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0318233352456306</v>
+        <v>0.0003003226317437852</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9681766647543472</v>
+        <v>0.9993993547365123</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4917,358 +4509,22 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS243_61.fasta</t>
+          <t>label_UMGS243_9.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.219855726358453e-14</v>
+        <v>0.0003007523356303648</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9756460606595785</v>
+        <v>0.9993984953287393</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02435393934039926</v>
+        <v>0.0003007523356303524</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9756460606595785</v>
+        <v>0.9993984953287393</v>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_68.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2.219821462409235e-14</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.988600083158925</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.01139991684105288</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.988600083158925</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_12.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.0003003729519023819</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.9993992540961951</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.0003003729519023705</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.9993992540961951</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_14.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.0003003926152421993</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.9993992147695158</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.000300392615242188</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.9993992147695158</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_19.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0003015871032873111</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.9993968257934254</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.0003015871032872997</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.9993968257934254</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_22.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.0003007801404018778</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.9993984397191963</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.0003007801404018666</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.9993984397191963</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_24.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.0003003782701890993</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.9993992434596218</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.0003003782701890859</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9993992434596218</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_26.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.0003026438222833366</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.9993947123554333</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.000302643822283325</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.9993947123554333</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_29.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.0003006823913213609</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.9993986352173572</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.0003006823913213496</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.9993986352173572</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_33.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.0003019484582159186</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.9993961030835681</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.0003019484582159053</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.9993961030835681</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_48.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.0003717213506898672</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.9992565572986204</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.0003717213506898538</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.9992565572986204</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_53.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.0003052875328278611</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.9993894249343442</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.0003052875328278504</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9993894249343442</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_60.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.0005920222242865684</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.9988159555514269</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.0005920222242865518</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.9988159555514269</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_7.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.0003003226317437967</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.9993993547365123</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.0003003226317437852</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9993993547365123</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS243_9.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.0003007523356303648</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.9993984953287393</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.0003007523356303524</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9993984953287393</v>
-      </c>
-      <c r="F83" t="inlineStr">
         <is>
           <t>s__UBA1436 sp900540405</t>
         </is>
@@ -5285,7 +4541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,20 +4920,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_0.fasta</t>
+          <t>label_UMGS352_14.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.219817862713923e-14</v>
+        <v>2.219809101179554e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005274796867373968</v>
+        <v>0.001363383171246425</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9947252031326039</v>
+        <v>0.9986366168287314</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9947252031326039</v>
+        <v>0.9986366168287314</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -5688,20 +4944,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_10.fasta</t>
+          <t>label_UMGS352_16.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.219807457466515e-14</v>
+        <v>2.219811726912203e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001257409340131426</v>
+        <v>0.003422698778015488</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9987425906598464</v>
+        <v>0.9965773012219623</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9987425906598464</v>
+        <v>0.9965773012219623</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5712,20 +4968,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_12.fasta</t>
+          <t>label_UMGS352_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.219807649552313e-14</v>
+        <v>2.219807470036667e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001039813161990738</v>
+        <v>0.0009121234887983213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989601868379872</v>
+        <v>0.9990878765111795</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9989601868379872</v>
+        <v>0.9990878765111795</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -5736,20 +4992,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_13.fasta</t>
+          <t>label_UMGS352_22.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.219819094496967e-14</v>
+        <v>2.219810809040358e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009629234870864549</v>
+        <v>0.002501723418711525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9903707651291133</v>
+        <v>0.9974982765812662</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9903707651291133</v>
+        <v>0.9974982765812662</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5760,20 +5016,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_23.fasta</t>
+          <t>label_UMGS352_33.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.219809275199031e-14</v>
+        <v>2.219809962222103e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001979686948941591</v>
+        <v>0.003269224157723163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9980203130510362</v>
+        <v>0.9967307758422546</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9980203130510362</v>
+        <v>0.9967307758422546</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5784,20 +5040,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_25.fasta</t>
+          <t>label_UMGS352_34.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.219960340750493e-14</v>
+        <v>2.219807119542003e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07314435023418177</v>
+        <v>0.001147385479904154</v>
       </c>
       <c r="D21" t="n">
-        <v>0.926855649765796</v>
+        <v>0.9988526145200736</v>
       </c>
       <c r="E21" t="n">
-        <v>0.926855649765796</v>
+        <v>0.9988526145200736</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5808,20 +5064,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_26.fasta</t>
+          <t>label_UMGS352_38.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.219810475597958e-14</v>
+        <v>2.219808988565478e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002175536939870681</v>
+        <v>0.001271670241638383</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9978244630601071</v>
+        <v>0.9987283297583394</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9978244630601071</v>
+        <v>0.9987283297583394</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5832,20 +5088,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_28.fasta</t>
+          <t>label_UMGS352_43.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.219812959222377e-14</v>
+        <v>2.219810045728101e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005525807524311001</v>
+        <v>0.002588292903265546</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9944741924756668</v>
+        <v>0.9974117070967122</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9944741924756668</v>
+        <v>0.9974117070967122</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5856,20 +5112,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_30.fasta</t>
+          <t>label_UMGS352_49.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.219807280559389e-14</v>
+        <v>2.219810703451849e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00119099869235419</v>
+        <v>0.002686721680338893</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988090013076235</v>
+        <v>0.9973132783196389</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9988090013076235</v>
+        <v>0.9973132783196389</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5880,20 +5136,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_37.fasta</t>
+          <t>label_UMGS352_5.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.219811151949186e-14</v>
+        <v>2.219808758700789e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002186854361916427</v>
+        <v>0.001771125445792381</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9978131456380613</v>
+        <v>0.9982288745541854</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9978131456380613</v>
+        <v>0.9982288745541854</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5904,20 +5160,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_53.fasta</t>
+          <t>label_UMGS352_55.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.219861642569298e-14</v>
+        <v>2.219820334619513e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03950550467474293</v>
+        <v>0.005155699538379814</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9604944953252348</v>
+        <v>0.9948443004615979</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9604944953252348</v>
+        <v>0.9948443004615979</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5928,20 +5184,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_54.fasta</t>
+          <t>label_UMGS352_65.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.219906827960407e-14</v>
+        <v>2.892137871064887e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05332696047904185</v>
+        <v>0.4829091968986798</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9466730395209361</v>
+        <v>0.5170908031010311</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9466730395209361</v>
+        <v>0.5170908031010311</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5952,20 +5208,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_6.fasta</t>
+          <t>label_UMGS352_66.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.219808257598017e-14</v>
+        <v>2.219809895350586e-14</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00193100474477361</v>
+        <v>0.002228578878876546</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9980689952552042</v>
+        <v>0.9977714211211012</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9980689952552042</v>
+        <v>0.9977714211211012</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5976,20 +5232,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_63.fasta</t>
+          <t>label_UMGS352_9.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.219807777640145e-14</v>
+        <v>2.219808696940722e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001885135079732544</v>
+        <v>0.001486010802385569</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9981148649202453</v>
+        <v>0.9985139891975922</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9981148649202453</v>
+        <v>0.9985139891975922</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -6000,20 +5256,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_64.fasta</t>
+          <t>label_UMGS352_1.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.219822563339268e-14</v>
+        <v>0.0004060620880668745</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006671731526099943</v>
+        <v>0.000407341660292174</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9933282684738778</v>
+        <v>0.999186596251641</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9933282684738778</v>
+        <v>0.999186596251641</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6024,20 +5280,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_67.fasta</t>
+          <t>label_UMGS352_15.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.219807292217732e-14</v>
+        <v>2.220461797487821e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001383596270623599</v>
+        <v>1.128971351330176e-10</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9986164037293542</v>
+        <v>0.9999999998870807</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9986164037293542</v>
+        <v>0.9999999998870807</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -6048,20 +5304,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_14.fasta</t>
+          <t>label_UMGS352_20.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.219809101179554e-14</v>
+        <v>0.0005732627463185574</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001363383171246425</v>
+        <v>0.0005754953743170271</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9986366168287314</v>
+        <v>0.9988512418793645</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9986366168287314</v>
+        <v>0.9988512418793645</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -6072,20 +5328,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_16.fasta</t>
+          <t>label_UMGS352_24.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.219811726912203e-14</v>
+        <v>1.745068048391095e-12</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003422698778015488</v>
+        <v>0.002154465091957447</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9965773012219623</v>
+        <v>0.9978455349062975</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9965773012219623</v>
+        <v>0.9978455349062975</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -6096,20 +5352,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_19.fasta</t>
+          <t>label_UMGS352_29.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.219807470036667e-14</v>
+        <v>2.221449592763759e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0009121234887983213</v>
+        <v>7.726279020463881e-07</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9990878765111795</v>
+        <v>0.9999992273720758</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9990878765111795</v>
+        <v>0.9999992273720758</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -6120,20 +5376,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_22.fasta</t>
+          <t>label_UMGS352_40.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.219810809040358e-14</v>
+        <v>3.058895060611999e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002501723418711525</v>
+        <v>0.01290391159184832</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9974982765812662</v>
+        <v>0.9870960884078458</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9974982765812662</v>
+        <v>0.9870960884078458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -6144,20 +5400,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_33.fasta</t>
+          <t>label_UMGS352_46.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.219809962222103e-14</v>
+        <v>1.653400494944806e-10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003269224157723163</v>
+        <v>0.02343563228029725</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9967307758422546</v>
+        <v>0.9765643675543627</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9967307758422546</v>
+        <v>0.9765643675543627</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -6168,20 +5424,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_34.fasta</t>
+          <t>label_UMGS352_47.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.219807119542003e-14</v>
+        <v>1.063735570562635e-12</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001147385479904154</v>
+        <v>0.001263973032897972</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9988526145200736</v>
+        <v>0.9987360269660382</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9988526145200736</v>
+        <v>0.9987360269660382</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -6192,20 +5448,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_38.fasta</t>
+          <t>label_UMGS352_51.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.219808988565478e-14</v>
+        <v>7.327424641941886e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001271670241638383</v>
+        <v>0.00310516736331134</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9987283297583394</v>
+        <v>0.9968948326359559</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9987283297583394</v>
+        <v>0.9968948326359559</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -6216,20 +5472,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_43.fasta</t>
+          <t>label_UMGS352_52.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.219810045728101e-14</v>
+        <v>2.208588855492308e-13</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002588292903265546</v>
+        <v>0.2375795275629797</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9974117070967122</v>
+        <v>0.7624204724367993</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9974117070967122</v>
+        <v>0.7624204724367993</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -6240,20 +5496,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_49.fasta</t>
+          <t>label_UMGS352_57.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.219810703451849e-14</v>
+        <v>0.000606005628976379</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002686721680338893</v>
+        <v>0.0006080584615969247</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9973132783196389</v>
+        <v>0.9987859359094268</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9973132783196389</v>
+        <v>0.9987859359094268</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6264,20 +5520,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_5.fasta</t>
+          <t>label_UMGS352_62.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.219808758700789e-14</v>
+        <v>0.000567851731998998</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001771125445792381</v>
+        <v>0.0005694485298958738</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9982288745541854</v>
+        <v>0.9988626997381052</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9982288745541854</v>
+        <v>0.9988626997381052</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -6288,20 +5544,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_55.fasta</t>
+          <t>label_UMGS352_7.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.219820334619513e-14</v>
+        <v>2.221001607911454e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005155699538379814</v>
+        <v>8.403453395170694e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9948443004615979</v>
+        <v>0.9999991596546383</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9948443004615979</v>
+        <v>0.9999991596546383</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -6312,20 +5568,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_65.fasta</t>
+          <t>label_UMGS352_70.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.892137871064887e-13</v>
+        <v>6.487112067996974e-11</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4829091968986798</v>
+        <v>0.01475914695906225</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5170908031010311</v>
+        <v>0.9852408529760667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5170908031010311</v>
+        <v>0.9852408529760667</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -6336,20 +5592,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_66.fasta</t>
+          <t>label_UMGS352_72.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.219809895350586e-14</v>
+        <v>1.064499442813398e-10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002228578878876546</v>
+        <v>0.108364808017816</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9977714211211012</v>
+        <v>0.8916351918757341</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9977714211211012</v>
+        <v>0.8916351918757341</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -6360,20 +5616,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_9.fasta</t>
+          <t>label_UMGS352_11.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.219808696940722e-14</v>
+        <v>2.219881120264162e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001486010802385569</v>
+        <v>0.001822992971254646</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9985139891975922</v>
+        <v>0.9981770070287233</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9985139891975922</v>
+        <v>0.9981770070287233</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -6384,20 +5640,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_1.fasta</t>
+          <t>label_UMGS352_18.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0004060620880668745</v>
+        <v>2.219813156291839e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000407341660292174</v>
+        <v>0.002810428391163574</v>
       </c>
       <c r="D46" t="n">
-        <v>0.999186596251641</v>
+        <v>0.9971895716088142</v>
       </c>
       <c r="E46" t="n">
-        <v>0.999186596251641</v>
+        <v>0.9971895716088142</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -6408,20 +5664,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_15.fasta</t>
+          <t>label_UMGS352_21.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.220461797487821e-14</v>
+        <v>2.219811441080267e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>1.128971351330176e-10</v>
+        <v>0.003272249516064332</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999999998870807</v>
+        <v>0.9967277504839134</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999999998870807</v>
+        <v>0.9967277504839134</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -6432,20 +5688,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_20.fasta</t>
+          <t>label_UMGS352_27.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0005732627463185574</v>
+        <v>2.220241802686857e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0005754953743170271</v>
+        <v>0.0007316415122390643</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9988512418793645</v>
+        <v>0.9992683584877388</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9988512418793645</v>
+        <v>0.9992683584877388</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -6456,20 +5712,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_24.fasta</t>
+          <t>label_UMGS352_35.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.745068048391095e-12</v>
+        <v>2.220396728199404e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002154465091957447</v>
+        <v>0.01111210495239965</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9978455349062975</v>
+        <v>0.988887895047578</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9978455349062975</v>
+        <v>0.988887895047578</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -6480,20 +5736,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_29.fasta</t>
+          <t>label_UMGS352_39.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.221449592763759e-14</v>
+        <v>2.220128253843242e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>7.726279020463881e-07</v>
+        <v>0.001056573187396275</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9999992273720758</v>
+        <v>0.9989434268125815</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9999992273720758</v>
+        <v>0.9989434268125815</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -6504,20 +5760,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_40.fasta</t>
+          <t>label_UMGS352_4.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.058895060611999e-13</v>
+        <v>2.220663795586713e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01290391159184832</v>
+        <v>6.929691364394701e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9870960884078458</v>
+        <v>0.9999307030863338</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9870960884078458</v>
+        <v>0.9999307030863338</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -6528,20 +5784,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_46.fasta</t>
+          <t>label_UMGS352_41.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.653400494944806e-10</v>
+        <v>2.220144568210404e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02343563228029725</v>
+        <v>0.0009555087176052093</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9765643675543627</v>
+        <v>0.9990444912823726</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9765643675543627</v>
+        <v>0.9990444912823726</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -6552,20 +5808,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_47.fasta</t>
+          <t>label_UMGS352_44.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.063735570562635e-12</v>
+        <v>2.219814002289535e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001263973032897972</v>
+        <v>0.00534770753181266</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9987360269660382</v>
+        <v>0.9946522924681651</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9987360269660382</v>
+        <v>0.9946522924681651</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -6576,20 +5832,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_51.fasta</t>
+          <t>label_UMGS352_45.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.327424641941886e-13</v>
+        <v>2.220124217901511e-14</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00310516736331134</v>
+        <v>0.001042915148170338</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9968948326359559</v>
+        <v>0.9989570848518075</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9968948326359559</v>
+        <v>0.9989570848518075</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -6600,20 +5856,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_52.fasta</t>
+          <t>label_UMGS352_59.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.208588855492308e-13</v>
+        <v>2.220164047918092e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2375795275629797</v>
+        <v>0.0009479461629430003</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7624204724367993</v>
+        <v>0.9990520538370348</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7624204724367993</v>
+        <v>0.9990520538370348</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -6624,20 +5880,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_57.fasta</t>
+          <t>label_UMGS352_61.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.000606005628976379</v>
+        <v>2.219812322573322e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0006080584615969247</v>
+        <v>0.002780612110554754</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9987859359094268</v>
+        <v>0.9972193878894231</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9987859359094268</v>
+        <v>0.9972193878894231</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -6648,20 +5904,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_62.fasta</t>
+          <t>label_UMGS352_68.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.000567851731998998</v>
+        <v>2.219924316355787e-14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0005694485298958738</v>
+        <v>0.0527594988687196</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9988626997381052</v>
+        <v>0.9472405011312582</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9988626997381052</v>
+        <v>0.9472405011312582</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -6672,20 +5928,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_7.fasta</t>
+          <t>label_UMGS352_8.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.221001607911454e-14</v>
+        <v>7.066119216892364e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>8.403453395170694e-07</v>
+        <v>0.01357707404694592</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999991596546383</v>
+        <v>0.9864229259529834</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9999991596546383</v>
+        <v>0.9864229259529834</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6696,20 +5952,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_70.fasta</t>
+          <t>label_UMGS352_17.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6.487112067996974e-11</v>
+        <v>2.220258047478578e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01475914695906225</v>
+        <v>0.0002542208839908984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9852408529760667</v>
+        <v>0.9997457791159871</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9852408529760667</v>
+        <v>0.9997457791159871</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6720,20 +5976,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_72.fasta</t>
+          <t>label_UMGS352_2.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.064499442813398e-10</v>
+        <v>2.220393702504991e-14</v>
       </c>
       <c r="C60" t="n">
-        <v>0.108364808017816</v>
+        <v>7.07413168303827e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8916351918757341</v>
+        <v>0.9999292586831475</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8916351918757341</v>
+        <v>0.9999292586831475</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6744,20 +6000,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_11.fasta</t>
+          <t>label_UMGS352_3.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.219881120264162e-14</v>
+        <v>2.220437347480675e-14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001822992971254646</v>
+        <v>1.175724668593112e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9981770070287233</v>
+        <v>0.9999882427532919</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9981770070287233</v>
+        <v>0.9999882427532919</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6768,20 +6024,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_18.fasta</t>
+          <t>label_UMGS352_31.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.219813156291839e-14</v>
+        <v>2.219807931397702e-14</v>
       </c>
       <c r="C62" t="n">
-        <v>0.002810428391163574</v>
+        <v>0.001166039675816762</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9971895716088142</v>
+        <v>0.9988339603241612</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9971895716088142</v>
+        <v>0.9988339603241612</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6792,20 +6048,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_21.fasta</t>
+          <t>label_UMGS352_32.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.219811441080267e-14</v>
+        <v>2.219808742122804e-14</v>
       </c>
       <c r="C63" t="n">
-        <v>0.003272249516064332</v>
+        <v>0.002429921977685356</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9967277504839134</v>
+        <v>0.9975700780222925</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9967277504839134</v>
+        <v>0.9975700780222925</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6816,20 +6072,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_27.fasta</t>
+          <t>label_UMGS352_36.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.220241802686857e-14</v>
+        <v>2.220369191056639e-14</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0007316415122390643</v>
+        <v>0.0001038775311328076</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9992683584877388</v>
+        <v>0.9998961224688449</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9992683584877388</v>
+        <v>0.9998961224688449</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6840,20 +6096,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_35.fasta</t>
+          <t>label_UMGS352_42.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.220396728199404e-14</v>
+        <v>2.219808840141787e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01111210495239965</v>
+        <v>0.001503527203996775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.988887895047578</v>
+        <v>0.998496472795981</v>
       </c>
       <c r="E65" t="n">
-        <v>0.988887895047578</v>
+        <v>0.998496472795981</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6864,20 +6120,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_39.fasta</t>
+          <t>label_UMGS352_48.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.220128253843242e-14</v>
+        <v>2.219807812305823e-14</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001056573187396275</v>
+        <v>0.001306165482421903</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9989434268125815</v>
+        <v>0.998693834517556</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9989434268125815</v>
+        <v>0.998693834517556</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -6888,20 +6144,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_4.fasta</t>
+          <t>label_UMGS352_50.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.220663795586713e-14</v>
+        <v>2.219883795931273e-14</v>
       </c>
       <c r="C67" t="n">
-        <v>6.929691364394701e-05</v>
+        <v>0.0007615836915596362</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999307030863338</v>
+        <v>0.9992384163084181</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999307030863338</v>
+        <v>0.9992384163084181</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -6912,20 +6168,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_41.fasta</t>
+          <t>label_UMGS352_56.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.220144568210404e-14</v>
+        <v>2.219939086075103e-14</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0009555087176052093</v>
+        <v>0.000686519641297502</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9990444912823726</v>
+        <v>0.9993134803586804</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9990444912823726</v>
+        <v>0.9993134803586804</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -6936,20 +6192,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_44.fasta</t>
+          <t>label_UMGS352_58.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.219814002289535e-14</v>
+        <v>2.220121917205687e-14</v>
       </c>
       <c r="C69" t="n">
-        <v>0.00534770753181266</v>
+        <v>0.0004385696556151094</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9946522924681651</v>
+        <v>0.9995614303443626</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9946522924681651</v>
+        <v>0.9995614303443626</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -6960,20 +6216,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_45.fasta</t>
+          <t>label_UMGS352_60.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.220124217901511e-14</v>
+        <v>2.978507503760578e-13</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001042915148170338</v>
+        <v>0.4804218714317953</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9989570848518075</v>
+        <v>0.5195781285679067</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9989570848518075</v>
+        <v>0.5195781285679067</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -6984,430 +6240,46 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_59.fasta</t>
+          <t>label_UMGS352_69.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.220164047918092e-14</v>
+        <v>1.42581702932931e-13</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0009479461629430003</v>
+        <v>0.518332354370451</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9990520538370348</v>
+        <v>0.4816676456294064</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9990520538370348</v>
+        <v>0.518332354370451</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>s__UBA1436 sp900541355</t>
+          <t>s__UBA1436 sp900540405</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS352_61.fasta</t>
+          <t>label_UMGS352_71.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.219812322573322e-14</v>
+        <v>0.113532631994968</v>
       </c>
       <c r="C72" t="n">
-        <v>0.002780612110554754</v>
+        <v>0.7729347360100639</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9972193878894231</v>
+        <v>0.113532631994968</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9972193878894231</v>
+        <v>0.7729347360100639</v>
       </c>
       <c r="F72" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_68.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2.219924316355787e-14</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.0527594988687196</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9472405011312582</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.9472405011312582</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_8.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>7.066119216892364e-14</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.01357707404694592</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9864229259529834</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.9864229259529834</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_17.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2.220258047478578e-14</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0002542208839908984</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9997457791159871</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9997457791159871</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_2.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2.220393702504991e-14</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7.07413168303827e-05</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9999292586831475</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.9999292586831475</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_3.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2.220437347480675e-14</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.175724668593112e-05</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9999882427532919</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.9999882427532919</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_31.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2.219807931397702e-14</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.001166039675816762</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9988339603241612</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.9988339603241612</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_32.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2.219808742122804e-14</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.002429921977685356</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9975700780222925</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.9975700780222925</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_36.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2.220369191056639e-14</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.0001038775311328076</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9998961224688449</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9998961224688449</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_42.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2.219808840141787e-14</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.001503527203996775</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.998496472795981</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.998496472795981</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_48.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2.219807812305823e-14</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.001306165482421903</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.998693834517556</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.998693834517556</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_50.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2.219883795931273e-14</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.0007615836915596362</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.9992384163084181</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9992384163084181</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_56.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>2.219939086075103e-14</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.000686519641297502</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.9993134803586804</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9993134803586804</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_58.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>2.220121917205687e-14</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.0004385696556151094</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.9995614303443626</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.9995614303443626</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_60.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2.978507503760578e-13</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.4804218714317953</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.5195781285679067</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.5195781285679067</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900541355</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_69.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>1.42581702932931e-13</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.518332354370451</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4816676456294064</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.518332354370451</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>s__UBA1436 sp900540405</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS352_71.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.113532631994968</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.7729347360100639</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.113532631994968</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.7729347360100639</v>
-      </c>
-      <c r="F88" t="inlineStr">
         <is>
           <t>s__UBA1436 sp900540405</t>
         </is>
